--- a/sequences/13_retrieval_1.xlsx
+++ b/sequences/13_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1900,6 +1900,30 @@
       <c r="F3" t="s">
         <v>206</v>
       </c>
+      <c r="G3" t="s">
+        <v>206</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+      <c r="I3" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>206</v>
+      </c>
+      <c r="M3" t="s">
+        <v>206</v>
+      </c>
+      <c r="N3" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
@@ -2140,6 +2164,30 @@
       <c r="F9" t="s">
         <v>206</v>
       </c>
+      <c r="G9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" t="s">
+        <v>206</v>
+      </c>
+      <c r="L9" t="s">
+        <v>206</v>
+      </c>
+      <c r="M9" t="s">
+        <v>206</v>
+      </c>
+      <c r="N9" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
@@ -2160,6 +2208,30 @@
       <c r="F10" t="s">
         <v>206</v>
       </c>
+      <c r="G10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" t="s">
+        <v>206</v>
+      </c>
+      <c r="I10" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" t="s">
+        <v>206</v>
+      </c>
+      <c r="L10" t="s">
+        <v>206</v>
+      </c>
+      <c r="M10" t="s">
+        <v>206</v>
+      </c>
+      <c r="N10" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
@@ -2268,6 +2340,30 @@
       <c r="F13" t="s">
         <v>206</v>
       </c>
+      <c r="G13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" t="s">
+        <v>206</v>
+      </c>
+      <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" t="s">
+        <v>206</v>
+      </c>
+      <c r="K13" t="s">
+        <v>206</v>
+      </c>
+      <c r="L13" t="s">
+        <v>206</v>
+      </c>
+      <c r="M13" t="s">
+        <v>206</v>
+      </c>
+      <c r="N13" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
@@ -2464,6 +2560,30 @@
       <c r="F18" t="s">
         <v>206</v>
       </c>
+      <c r="G18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" t="s">
+        <v>206</v>
+      </c>
+      <c r="K18" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" t="s">
+        <v>206</v>
+      </c>
+      <c r="M18" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
@@ -2528,6 +2648,30 @@
       <c r="F20" t="s">
         <v>206</v>
       </c>
+      <c r="G20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2636,6 +2780,30 @@
       <c r="F23" t="s">
         <v>206</v>
       </c>
+      <c r="G23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H23" t="s">
+        <v>206</v>
+      </c>
+      <c r="I23" t="s">
+        <v>206</v>
+      </c>
+      <c r="J23" t="s">
+        <v>206</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>206</v>
+      </c>
+      <c r="M23" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
@@ -2788,6 +2956,30 @@
       <c r="F27" t="s">
         <v>206</v>
       </c>
+      <c r="G27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" t="s">
+        <v>206</v>
+      </c>
+      <c r="I27" t="s">
+        <v>206</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>206</v>
+      </c>
+      <c r="M27" t="s">
+        <v>206</v>
+      </c>
+      <c r="N27" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
@@ -2852,6 +3044,30 @@
       <c r="F29" t="s">
         <v>206</v>
       </c>
+      <c r="G29" t="s">
+        <v>206</v>
+      </c>
+      <c r="H29" t="s">
+        <v>206</v>
+      </c>
+      <c r="I29" t="s">
+        <v>206</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" t="s">
+        <v>206</v>
+      </c>
+      <c r="M29" t="s">
+        <v>206</v>
+      </c>
+      <c r="N29" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -3004,6 +3220,30 @@
       <c r="F33" t="s">
         <v>206</v>
       </c>
+      <c r="G33" t="s">
+        <v>206</v>
+      </c>
+      <c r="H33" t="s">
+        <v>206</v>
+      </c>
+      <c r="I33" t="s">
+        <v>206</v>
+      </c>
+      <c r="J33" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" t="s">
+        <v>206</v>
+      </c>
+      <c r="L33" t="s">
+        <v>206</v>
+      </c>
+      <c r="M33" t="s">
+        <v>206</v>
+      </c>
+      <c r="N33" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
@@ -3244,6 +3484,30 @@
       <c r="F39" t="s">
         <v>206</v>
       </c>
+      <c r="G39" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J39" t="s">
+        <v>206</v>
+      </c>
+      <c r="K39" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" t="s">
+        <v>206</v>
+      </c>
+      <c r="M39" t="s">
+        <v>206</v>
+      </c>
+      <c r="N39" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3308,6 +3572,30 @@
       <c r="F41" t="s">
         <v>206</v>
       </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" t="s">
+        <v>206</v>
+      </c>
+      <c r="J41" t="s">
+        <v>206</v>
+      </c>
+      <c r="K41" t="s">
+        <v>206</v>
+      </c>
+      <c r="L41" t="s">
+        <v>206</v>
+      </c>
+      <c r="M41" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
@@ -3504,6 +3792,30 @@
       <c r="F46" t="s">
         <v>206</v>
       </c>
+      <c r="G46" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" t="s">
+        <v>206</v>
+      </c>
+      <c r="I46" t="s">
+        <v>206</v>
+      </c>
+      <c r="J46" t="s">
+        <v>206</v>
+      </c>
+      <c r="K46" t="s">
+        <v>206</v>
+      </c>
+      <c r="L46" t="s">
+        <v>206</v>
+      </c>
+      <c r="M46" t="s">
+        <v>206</v>
+      </c>
+      <c r="N46" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
@@ -3788,6 +4100,30 @@
       <c r="F53" t="s">
         <v>206</v>
       </c>
+      <c r="G53" t="s">
+        <v>206</v>
+      </c>
+      <c r="H53" t="s">
+        <v>206</v>
+      </c>
+      <c r="I53" t="s">
+        <v>206</v>
+      </c>
+      <c r="J53" t="s">
+        <v>206</v>
+      </c>
+      <c r="K53" t="s">
+        <v>206</v>
+      </c>
+      <c r="L53" t="s">
+        <v>206</v>
+      </c>
+      <c r="M53" t="s">
+        <v>206</v>
+      </c>
+      <c r="N53" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3808,6 +4144,30 @@
       <c r="F54" t="s">
         <v>206</v>
       </c>
+      <c r="G54" t="s">
+        <v>206</v>
+      </c>
+      <c r="H54" t="s">
+        <v>206</v>
+      </c>
+      <c r="I54" t="s">
+        <v>206</v>
+      </c>
+      <c r="J54" t="s">
+        <v>206</v>
+      </c>
+      <c r="K54" t="s">
+        <v>206</v>
+      </c>
+      <c r="L54" t="s">
+        <v>206</v>
+      </c>
+      <c r="M54" t="s">
+        <v>206</v>
+      </c>
+      <c r="N54" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
@@ -4048,6 +4408,30 @@
       <c r="F60" t="s">
         <v>206</v>
       </c>
+      <c r="G60" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" t="s">
+        <v>206</v>
+      </c>
+      <c r="I60" t="s">
+        <v>206</v>
+      </c>
+      <c r="J60" t="s">
+        <v>206</v>
+      </c>
+      <c r="K60" t="s">
+        <v>206</v>
+      </c>
+      <c r="L60" t="s">
+        <v>206</v>
+      </c>
+      <c r="M60" t="s">
+        <v>206</v>
+      </c>
+      <c r="N60" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="1">
@@ -4068,6 +4452,30 @@
       <c r="F61" t="s">
         <v>206</v>
       </c>
+      <c r="G61" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" t="s">
+        <v>206</v>
+      </c>
+      <c r="I61" t="s">
+        <v>206</v>
+      </c>
+      <c r="J61" t="s">
+        <v>206</v>
+      </c>
+      <c r="K61" t="s">
+        <v>206</v>
+      </c>
+      <c r="L61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M61" t="s">
+        <v>206</v>
+      </c>
+      <c r="N61" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="1">
@@ -4132,6 +4540,30 @@
       <c r="F63" t="s">
         <v>206</v>
       </c>
+      <c r="G63" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" t="s">
+        <v>206</v>
+      </c>
+      <c r="I63" t="s">
+        <v>206</v>
+      </c>
+      <c r="J63" t="s">
+        <v>206</v>
+      </c>
+      <c r="K63" t="s">
+        <v>206</v>
+      </c>
+      <c r="L63" t="s">
+        <v>206</v>
+      </c>
+      <c r="M63" t="s">
+        <v>206</v>
+      </c>
+      <c r="N63" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="1">
@@ -4416,6 +4848,30 @@
       <c r="F70" t="s">
         <v>206</v>
       </c>
+      <c r="G70" t="s">
+        <v>206</v>
+      </c>
+      <c r="H70" t="s">
+        <v>206</v>
+      </c>
+      <c r="I70" t="s">
+        <v>206</v>
+      </c>
+      <c r="J70" t="s">
+        <v>206</v>
+      </c>
+      <c r="K70" t="s">
+        <v>206</v>
+      </c>
+      <c r="L70" t="s">
+        <v>206</v>
+      </c>
+      <c r="M70" t="s">
+        <v>206</v>
+      </c>
+      <c r="N70" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
@@ -4480,6 +4936,30 @@
       <c r="F72" t="s">
         <v>206</v>
       </c>
+      <c r="G72" t="s">
+        <v>206</v>
+      </c>
+      <c r="H72" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" t="s">
+        <v>206</v>
+      </c>
+      <c r="J72" t="s">
+        <v>206</v>
+      </c>
+      <c r="K72" t="s">
+        <v>206</v>
+      </c>
+      <c r="L72" t="s">
+        <v>206</v>
+      </c>
+      <c r="M72" t="s">
+        <v>206</v>
+      </c>
+      <c r="N72" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
@@ -4500,6 +4980,30 @@
       <c r="F73" t="s">
         <v>206</v>
       </c>
+      <c r="G73" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" t="s">
+        <v>206</v>
+      </c>
+      <c r="J73" t="s">
+        <v>206</v>
+      </c>
+      <c r="K73" t="s">
+        <v>206</v>
+      </c>
+      <c r="L73" t="s">
+        <v>206</v>
+      </c>
+      <c r="M73" t="s">
+        <v>206</v>
+      </c>
+      <c r="N73" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
@@ -4520,6 +5024,30 @@
       <c r="F74" t="s">
         <v>206</v>
       </c>
+      <c r="G74" t="s">
+        <v>206</v>
+      </c>
+      <c r="H74" t="s">
+        <v>206</v>
+      </c>
+      <c r="I74" t="s">
+        <v>206</v>
+      </c>
+      <c r="J74" t="s">
+        <v>206</v>
+      </c>
+      <c r="K74" t="s">
+        <v>206</v>
+      </c>
+      <c r="L74" t="s">
+        <v>206</v>
+      </c>
+      <c r="M74" t="s">
+        <v>206</v>
+      </c>
+      <c r="N74" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
@@ -4584,6 +5112,30 @@
       <c r="F76" t="s">
         <v>206</v>
       </c>
+      <c r="G76" t="s">
+        <v>206</v>
+      </c>
+      <c r="H76" t="s">
+        <v>206</v>
+      </c>
+      <c r="I76" t="s">
+        <v>206</v>
+      </c>
+      <c r="J76" t="s">
+        <v>206</v>
+      </c>
+      <c r="K76" t="s">
+        <v>206</v>
+      </c>
+      <c r="L76" t="s">
+        <v>206</v>
+      </c>
+      <c r="M76" t="s">
+        <v>206</v>
+      </c>
+      <c r="N76" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
@@ -4648,6 +5200,30 @@
       <c r="F78" t="s">
         <v>206</v>
       </c>
+      <c r="G78" t="s">
+        <v>206</v>
+      </c>
+      <c r="H78" t="s">
+        <v>206</v>
+      </c>
+      <c r="I78" t="s">
+        <v>206</v>
+      </c>
+      <c r="J78" t="s">
+        <v>206</v>
+      </c>
+      <c r="K78" t="s">
+        <v>206</v>
+      </c>
+      <c r="L78" t="s">
+        <v>206</v>
+      </c>
+      <c r="M78" t="s">
+        <v>206</v>
+      </c>
+      <c r="N78" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
@@ -4888,6 +5464,30 @@
       <c r="F84" t="s">
         <v>206</v>
       </c>
+      <c r="G84" t="s">
+        <v>206</v>
+      </c>
+      <c r="H84" t="s">
+        <v>206</v>
+      </c>
+      <c r="I84" t="s">
+        <v>206</v>
+      </c>
+      <c r="J84" t="s">
+        <v>206</v>
+      </c>
+      <c r="K84" t="s">
+        <v>206</v>
+      </c>
+      <c r="L84" t="s">
+        <v>206</v>
+      </c>
+      <c r="M84" t="s">
+        <v>206</v>
+      </c>
+      <c r="N84" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
@@ -4952,6 +5552,30 @@
       <c r="F86" t="s">
         <v>206</v>
       </c>
+      <c r="G86" t="s">
+        <v>206</v>
+      </c>
+      <c r="H86" t="s">
+        <v>206</v>
+      </c>
+      <c r="I86" t="s">
+        <v>206</v>
+      </c>
+      <c r="J86" t="s">
+        <v>206</v>
+      </c>
+      <c r="K86" t="s">
+        <v>206</v>
+      </c>
+      <c r="L86" t="s">
+        <v>206</v>
+      </c>
+      <c r="M86" t="s">
+        <v>206</v>
+      </c>
+      <c r="N86" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
@@ -5104,6 +5728,30 @@
       <c r="F90" t="s">
         <v>206</v>
       </c>
+      <c r="G90" t="s">
+        <v>206</v>
+      </c>
+      <c r="H90" t="s">
+        <v>206</v>
+      </c>
+      <c r="I90" t="s">
+        <v>206</v>
+      </c>
+      <c r="J90" t="s">
+        <v>206</v>
+      </c>
+      <c r="K90" t="s">
+        <v>206</v>
+      </c>
+      <c r="L90" t="s">
+        <v>206</v>
+      </c>
+      <c r="M90" t="s">
+        <v>206</v>
+      </c>
+      <c r="N90" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
@@ -5344,6 +5992,30 @@
       <c r="F96" t="s">
         <v>206</v>
       </c>
+      <c r="G96" t="s">
+        <v>206</v>
+      </c>
+      <c r="H96" t="s">
+        <v>206</v>
+      </c>
+      <c r="I96" t="s">
+        <v>206</v>
+      </c>
+      <c r="J96" t="s">
+        <v>206</v>
+      </c>
+      <c r="K96" t="s">
+        <v>206</v>
+      </c>
+      <c r="L96" t="s">
+        <v>206</v>
+      </c>
+      <c r="M96" t="s">
+        <v>206</v>
+      </c>
+      <c r="N96" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
@@ -5364,6 +6036,30 @@
       <c r="F97" t="s">
         <v>206</v>
       </c>
+      <c r="G97" t="s">
+        <v>206</v>
+      </c>
+      <c r="H97" t="s">
+        <v>206</v>
+      </c>
+      <c r="I97" t="s">
+        <v>206</v>
+      </c>
+      <c r="J97" t="s">
+        <v>206</v>
+      </c>
+      <c r="K97" t="s">
+        <v>206</v>
+      </c>
+      <c r="L97" t="s">
+        <v>206</v>
+      </c>
+      <c r="M97" t="s">
+        <v>206</v>
+      </c>
+      <c r="N97" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5384,6 +6080,30 @@
       <c r="F98" t="s">
         <v>206</v>
       </c>
+      <c r="G98" t="s">
+        <v>206</v>
+      </c>
+      <c r="H98" t="s">
+        <v>206</v>
+      </c>
+      <c r="I98" t="s">
+        <v>206</v>
+      </c>
+      <c r="J98" t="s">
+        <v>206</v>
+      </c>
+      <c r="K98" t="s">
+        <v>206</v>
+      </c>
+      <c r="L98" t="s">
+        <v>206</v>
+      </c>
+      <c r="M98" t="s">
+        <v>206</v>
+      </c>
+      <c r="N98" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5492,6 +6212,30 @@
       <c r="F101" t="s">
         <v>206</v>
       </c>
+      <c r="G101" t="s">
+        <v>206</v>
+      </c>
+      <c r="H101" t="s">
+        <v>206</v>
+      </c>
+      <c r="I101" t="s">
+        <v>206</v>
+      </c>
+      <c r="J101" t="s">
+        <v>206</v>
+      </c>
+      <c r="K101" t="s">
+        <v>206</v>
+      </c>
+      <c r="L101" t="s">
+        <v>206</v>
+      </c>
+      <c r="M101" t="s">
+        <v>206</v>
+      </c>
+      <c r="N101" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5732,6 +6476,30 @@
       <c r="F107" t="s">
         <v>206</v>
       </c>
+      <c r="G107" t="s">
+        <v>206</v>
+      </c>
+      <c r="H107" t="s">
+        <v>206</v>
+      </c>
+      <c r="I107" t="s">
+        <v>206</v>
+      </c>
+      <c r="J107" t="s">
+        <v>206</v>
+      </c>
+      <c r="K107" t="s">
+        <v>206</v>
+      </c>
+      <c r="L107" t="s">
+        <v>206</v>
+      </c>
+      <c r="M107" t="s">
+        <v>206</v>
+      </c>
+      <c r="N107" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5752,6 +6520,30 @@
       <c r="F108" t="s">
         <v>206</v>
       </c>
+      <c r="G108" t="s">
+        <v>206</v>
+      </c>
+      <c r="H108" t="s">
+        <v>206</v>
+      </c>
+      <c r="I108" t="s">
+        <v>206</v>
+      </c>
+      <c r="J108" t="s">
+        <v>206</v>
+      </c>
+      <c r="K108" t="s">
+        <v>206</v>
+      </c>
+      <c r="L108" t="s">
+        <v>206</v>
+      </c>
+      <c r="M108" t="s">
+        <v>206</v>
+      </c>
+      <c r="N108" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5816,6 +6608,30 @@
       <c r="F110" t="s">
         <v>206</v>
       </c>
+      <c r="G110" t="s">
+        <v>206</v>
+      </c>
+      <c r="H110" t="s">
+        <v>206</v>
+      </c>
+      <c r="I110" t="s">
+        <v>206</v>
+      </c>
+      <c r="J110" t="s">
+        <v>206</v>
+      </c>
+      <c r="K110" t="s">
+        <v>206</v>
+      </c>
+      <c r="L110" t="s">
+        <v>206</v>
+      </c>
+      <c r="M110" t="s">
+        <v>206</v>
+      </c>
+      <c r="N110" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
@@ -5880,6 +6696,30 @@
       <c r="F112" t="s">
         <v>206</v>
       </c>
+      <c r="G112" t="s">
+        <v>206</v>
+      </c>
+      <c r="H112" t="s">
+        <v>206</v>
+      </c>
+      <c r="I112" t="s">
+        <v>206</v>
+      </c>
+      <c r="J112" t="s">
+        <v>206</v>
+      </c>
+      <c r="K112" t="s">
+        <v>206</v>
+      </c>
+      <c r="L112" t="s">
+        <v>206</v>
+      </c>
+      <c r="M112" t="s">
+        <v>206</v>
+      </c>
+      <c r="N112" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
@@ -6120,6 +6960,30 @@
       <c r="F118" t="s">
         <v>206</v>
       </c>
+      <c r="G118" t="s">
+        <v>206</v>
+      </c>
+      <c r="H118" t="s">
+        <v>206</v>
+      </c>
+      <c r="I118" t="s">
+        <v>206</v>
+      </c>
+      <c r="J118" t="s">
+        <v>206</v>
+      </c>
+      <c r="K118" t="s">
+        <v>206</v>
+      </c>
+      <c r="L118" t="s">
+        <v>206</v>
+      </c>
+      <c r="M118" t="s">
+        <v>206</v>
+      </c>
+      <c r="N118" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6140,6 +7004,30 @@
       <c r="F119" t="s">
         <v>206</v>
       </c>
+      <c r="G119" t="s">
+        <v>206</v>
+      </c>
+      <c r="H119" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" t="s">
+        <v>206</v>
+      </c>
+      <c r="J119" t="s">
+        <v>206</v>
+      </c>
+      <c r="K119" t="s">
+        <v>206</v>
+      </c>
+      <c r="L119" t="s">
+        <v>206</v>
+      </c>
+      <c r="M119" t="s">
+        <v>206</v>
+      </c>
+      <c r="N119" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
@@ -6160,6 +7048,30 @@
       <c r="F120" t="s">
         <v>206</v>
       </c>
+      <c r="G120" t="s">
+        <v>206</v>
+      </c>
+      <c r="H120" t="s">
+        <v>206</v>
+      </c>
+      <c r="I120" t="s">
+        <v>206</v>
+      </c>
+      <c r="J120" t="s">
+        <v>206</v>
+      </c>
+      <c r="K120" t="s">
+        <v>206</v>
+      </c>
+      <c r="L120" t="s">
+        <v>206</v>
+      </c>
+      <c r="M120" t="s">
+        <v>206</v>
+      </c>
+      <c r="N120" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
@@ -6312,6 +7224,30 @@
       <c r="F124" t="s">
         <v>206</v>
       </c>
+      <c r="G124" t="s">
+        <v>206</v>
+      </c>
+      <c r="H124" t="s">
+        <v>206</v>
+      </c>
+      <c r="I124" t="s">
+        <v>206</v>
+      </c>
+      <c r="J124" t="s">
+        <v>206</v>
+      </c>
+      <c r="K124" t="s">
+        <v>206</v>
+      </c>
+      <c r="L124" t="s">
+        <v>206</v>
+      </c>
+      <c r="M124" t="s">
+        <v>206</v>
+      </c>
+      <c r="N124" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
@@ -6552,6 +7488,30 @@
       <c r="F130" t="s">
         <v>206</v>
       </c>
+      <c r="G130" t="s">
+        <v>206</v>
+      </c>
+      <c r="H130" t="s">
+        <v>206</v>
+      </c>
+      <c r="I130" t="s">
+        <v>206</v>
+      </c>
+      <c r="J130" t="s">
+        <v>206</v>
+      </c>
+      <c r="K130" t="s">
+        <v>206</v>
+      </c>
+      <c r="L130" t="s">
+        <v>206</v>
+      </c>
+      <c r="M130" t="s">
+        <v>206</v>
+      </c>
+      <c r="N130" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
@@ -6660,6 +7620,30 @@
       <c r="F133" t="s">
         <v>206</v>
       </c>
+      <c r="G133" t="s">
+        <v>206</v>
+      </c>
+      <c r="H133" t="s">
+        <v>206</v>
+      </c>
+      <c r="I133" t="s">
+        <v>206</v>
+      </c>
+      <c r="J133" t="s">
+        <v>206</v>
+      </c>
+      <c r="K133" t="s">
+        <v>206</v>
+      </c>
+      <c r="L133" t="s">
+        <v>206</v>
+      </c>
+      <c r="M133" t="s">
+        <v>206</v>
+      </c>
+      <c r="N133" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6680,6 +7664,30 @@
       <c r="F134" t="s">
         <v>206</v>
       </c>
+      <c r="G134" t="s">
+        <v>206</v>
+      </c>
+      <c r="H134" t="s">
+        <v>206</v>
+      </c>
+      <c r="I134" t="s">
+        <v>206</v>
+      </c>
+      <c r="J134" t="s">
+        <v>206</v>
+      </c>
+      <c r="K134" t="s">
+        <v>206</v>
+      </c>
+      <c r="L134" t="s">
+        <v>206</v>
+      </c>
+      <c r="M134" t="s">
+        <v>206</v>
+      </c>
+      <c r="N134" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6788,6 +7796,30 @@
       <c r="F137" t="s">
         <v>206</v>
       </c>
+      <c r="G137" t="s">
+        <v>206</v>
+      </c>
+      <c r="H137" t="s">
+        <v>206</v>
+      </c>
+      <c r="I137" t="s">
+        <v>206</v>
+      </c>
+      <c r="J137" t="s">
+        <v>206</v>
+      </c>
+      <c r="K137" t="s">
+        <v>206</v>
+      </c>
+      <c r="L137" t="s">
+        <v>206</v>
+      </c>
+      <c r="M137" t="s">
+        <v>206</v>
+      </c>
+      <c r="N137" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
@@ -6896,6 +7928,30 @@
       <c r="F140" t="s">
         <v>206</v>
       </c>
+      <c r="G140" t="s">
+        <v>206</v>
+      </c>
+      <c r="H140" t="s">
+        <v>206</v>
+      </c>
+      <c r="I140" t="s">
+        <v>206</v>
+      </c>
+      <c r="J140" t="s">
+        <v>206</v>
+      </c>
+      <c r="K140" t="s">
+        <v>206</v>
+      </c>
+      <c r="L140" t="s">
+        <v>206</v>
+      </c>
+      <c r="M140" t="s">
+        <v>206</v>
+      </c>
+      <c r="N140" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
@@ -7048,6 +8104,30 @@
       <c r="F144" t="s">
         <v>206</v>
       </c>
+      <c r="G144" t="s">
+        <v>206</v>
+      </c>
+      <c r="H144" t="s">
+        <v>206</v>
+      </c>
+      <c r="I144" t="s">
+        <v>206</v>
+      </c>
+      <c r="J144" t="s">
+        <v>206</v>
+      </c>
+      <c r="K144" t="s">
+        <v>206</v>
+      </c>
+      <c r="L144" t="s">
+        <v>206</v>
+      </c>
+      <c r="M144" t="s">
+        <v>206</v>
+      </c>
+      <c r="N144" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7332,6 +8412,30 @@
       <c r="F151" t="s">
         <v>206</v>
       </c>
+      <c r="G151" t="s">
+        <v>206</v>
+      </c>
+      <c r="H151" t="s">
+        <v>206</v>
+      </c>
+      <c r="I151" t="s">
+        <v>206</v>
+      </c>
+      <c r="J151" t="s">
+        <v>206</v>
+      </c>
+      <c r="K151" t="s">
+        <v>206</v>
+      </c>
+      <c r="L151" t="s">
+        <v>206</v>
+      </c>
+      <c r="M151" t="s">
+        <v>206</v>
+      </c>
+      <c r="N151" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7440,6 +8544,30 @@
       <c r="F154" t="s">
         <v>206</v>
       </c>
+      <c r="G154" t="s">
+        <v>206</v>
+      </c>
+      <c r="H154" t="s">
+        <v>206</v>
+      </c>
+      <c r="I154" t="s">
+        <v>206</v>
+      </c>
+      <c r="J154" t="s">
+        <v>206</v>
+      </c>
+      <c r="K154" t="s">
+        <v>206</v>
+      </c>
+      <c r="L154" t="s">
+        <v>206</v>
+      </c>
+      <c r="M154" t="s">
+        <v>206</v>
+      </c>
+      <c r="N154" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
@@ -7636,6 +8764,30 @@
       <c r="F159" t="s">
         <v>206</v>
       </c>
+      <c r="G159" t="s">
+        <v>206</v>
+      </c>
+      <c r="H159" t="s">
+        <v>206</v>
+      </c>
+      <c r="I159" t="s">
+        <v>206</v>
+      </c>
+      <c r="J159" t="s">
+        <v>206</v>
+      </c>
+      <c r="K159" t="s">
+        <v>206</v>
+      </c>
+      <c r="L159" t="s">
+        <v>206</v>
+      </c>
+      <c r="M159" t="s">
+        <v>206</v>
+      </c>
+      <c r="N159" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7744,6 +8896,30 @@
       <c r="F162" t="s">
         <v>206</v>
       </c>
+      <c r="G162" t="s">
+        <v>206</v>
+      </c>
+      <c r="H162" t="s">
+        <v>206</v>
+      </c>
+      <c r="I162" t="s">
+        <v>206</v>
+      </c>
+      <c r="J162" t="s">
+        <v>206</v>
+      </c>
+      <c r="K162" t="s">
+        <v>206</v>
+      </c>
+      <c r="L162" t="s">
+        <v>206</v>
+      </c>
+      <c r="M162" t="s">
+        <v>206</v>
+      </c>
+      <c r="N162" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
@@ -7808,6 +8984,30 @@
       <c r="F164" t="s">
         <v>206</v>
       </c>
+      <c r="G164" t="s">
+        <v>206</v>
+      </c>
+      <c r="H164" t="s">
+        <v>206</v>
+      </c>
+      <c r="I164" t="s">
+        <v>206</v>
+      </c>
+      <c r="J164" t="s">
+        <v>206</v>
+      </c>
+      <c r="K164" t="s">
+        <v>206</v>
+      </c>
+      <c r="L164" t="s">
+        <v>206</v>
+      </c>
+      <c r="M164" t="s">
+        <v>206</v>
+      </c>
+      <c r="N164" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
@@ -7828,6 +9028,30 @@
       <c r="F165" t="s">
         <v>206</v>
       </c>
+      <c r="G165" t="s">
+        <v>206</v>
+      </c>
+      <c r="H165" t="s">
+        <v>206</v>
+      </c>
+      <c r="I165" t="s">
+        <v>206</v>
+      </c>
+      <c r="J165" t="s">
+        <v>206</v>
+      </c>
+      <c r="K165" t="s">
+        <v>206</v>
+      </c>
+      <c r="L165" t="s">
+        <v>206</v>
+      </c>
+      <c r="M165" t="s">
+        <v>206</v>
+      </c>
+      <c r="N165" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7848,6 +9072,30 @@
       <c r="F166" t="s">
         <v>206</v>
       </c>
+      <c r="G166" t="s">
+        <v>206</v>
+      </c>
+      <c r="H166" t="s">
+        <v>206</v>
+      </c>
+      <c r="I166" t="s">
+        <v>206</v>
+      </c>
+      <c r="J166" t="s">
+        <v>206</v>
+      </c>
+      <c r="K166" t="s">
+        <v>206</v>
+      </c>
+      <c r="L166" t="s">
+        <v>206</v>
+      </c>
+      <c r="M166" t="s">
+        <v>206</v>
+      </c>
+      <c r="N166" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
@@ -8044,6 +9292,30 @@
       <c r="F171" t="s">
         <v>206</v>
       </c>
+      <c r="G171" t="s">
+        <v>206</v>
+      </c>
+      <c r="H171" t="s">
+        <v>206</v>
+      </c>
+      <c r="I171" t="s">
+        <v>206</v>
+      </c>
+      <c r="J171" t="s">
+        <v>206</v>
+      </c>
+      <c r="K171" t="s">
+        <v>206</v>
+      </c>
+      <c r="L171" t="s">
+        <v>206</v>
+      </c>
+      <c r="M171" t="s">
+        <v>206</v>
+      </c>
+      <c r="N171" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
@@ -8064,6 +9336,30 @@
       <c r="F172" t="s">
         <v>206</v>
       </c>
+      <c r="G172" t="s">
+        <v>206</v>
+      </c>
+      <c r="H172" t="s">
+        <v>206</v>
+      </c>
+      <c r="I172" t="s">
+        <v>206</v>
+      </c>
+      <c r="J172" t="s">
+        <v>206</v>
+      </c>
+      <c r="K172" t="s">
+        <v>206</v>
+      </c>
+      <c r="L172" t="s">
+        <v>206</v>
+      </c>
+      <c r="M172" t="s">
+        <v>206</v>
+      </c>
+      <c r="N172" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
@@ -8084,6 +9380,30 @@
       <c r="F173" t="s">
         <v>206</v>
       </c>
+      <c r="G173" t="s">
+        <v>206</v>
+      </c>
+      <c r="H173" t="s">
+        <v>206</v>
+      </c>
+      <c r="I173" t="s">
+        <v>206</v>
+      </c>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+      <c r="K173" t="s">
+        <v>206</v>
+      </c>
+      <c r="L173" t="s">
+        <v>206</v>
+      </c>
+      <c r="M173" t="s">
+        <v>206</v>
+      </c>
+      <c r="N173" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
@@ -8192,6 +9512,30 @@
       <c r="F176" t="s">
         <v>206</v>
       </c>
+      <c r="G176" t="s">
+        <v>206</v>
+      </c>
+      <c r="H176" t="s">
+        <v>206</v>
+      </c>
+      <c r="I176" t="s">
+        <v>206</v>
+      </c>
+      <c r="J176" t="s">
+        <v>206</v>
+      </c>
+      <c r="K176" t="s">
+        <v>206</v>
+      </c>
+      <c r="L176" t="s">
+        <v>206</v>
+      </c>
+      <c r="M176" t="s">
+        <v>206</v>
+      </c>
+      <c r="N176" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
@@ -8212,6 +9556,30 @@
       <c r="F177" t="s">
         <v>206</v>
       </c>
+      <c r="G177" t="s">
+        <v>206</v>
+      </c>
+      <c r="H177" t="s">
+        <v>206</v>
+      </c>
+      <c r="I177" t="s">
+        <v>206</v>
+      </c>
+      <c r="J177" t="s">
+        <v>206</v>
+      </c>
+      <c r="K177" t="s">
+        <v>206</v>
+      </c>
+      <c r="L177" t="s">
+        <v>206</v>
+      </c>
+      <c r="M177" t="s">
+        <v>206</v>
+      </c>
+      <c r="N177" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
@@ -8232,6 +9600,30 @@
       <c r="F178" t="s">
         <v>206</v>
       </c>
+      <c r="G178" t="s">
+        <v>206</v>
+      </c>
+      <c r="H178" t="s">
+        <v>206</v>
+      </c>
+      <c r="I178" t="s">
+        <v>206</v>
+      </c>
+      <c r="J178" t="s">
+        <v>206</v>
+      </c>
+      <c r="K178" t="s">
+        <v>206</v>
+      </c>
+      <c r="L178" t="s">
+        <v>206</v>
+      </c>
+      <c r="M178" t="s">
+        <v>206</v>
+      </c>
+      <c r="N178" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
@@ -8384,6 +9776,30 @@
       <c r="F182" t="s">
         <v>206</v>
       </c>
+      <c r="G182" t="s">
+        <v>206</v>
+      </c>
+      <c r="H182" t="s">
+        <v>206</v>
+      </c>
+      <c r="I182" t="s">
+        <v>206</v>
+      </c>
+      <c r="J182" t="s">
+        <v>206</v>
+      </c>
+      <c r="K182" t="s">
+        <v>206</v>
+      </c>
+      <c r="L182" t="s">
+        <v>206</v>
+      </c>
+      <c r="M182" t="s">
+        <v>206</v>
+      </c>
+      <c r="N182" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
@@ -8404,6 +9820,30 @@
       <c r="F183" t="s">
         <v>206</v>
       </c>
+      <c r="G183" t="s">
+        <v>206</v>
+      </c>
+      <c r="H183" t="s">
+        <v>206</v>
+      </c>
+      <c r="I183" t="s">
+        <v>206</v>
+      </c>
+      <c r="J183" t="s">
+        <v>206</v>
+      </c>
+      <c r="K183" t="s">
+        <v>206</v>
+      </c>
+      <c r="L183" t="s">
+        <v>206</v>
+      </c>
+      <c r="M183" t="s">
+        <v>206</v>
+      </c>
+      <c r="N183" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
@@ -8468,6 +9908,30 @@
       <c r="F185" t="s">
         <v>206</v>
       </c>
+      <c r="G185" t="s">
+        <v>206</v>
+      </c>
+      <c r="H185" t="s">
+        <v>206</v>
+      </c>
+      <c r="I185" t="s">
+        <v>206</v>
+      </c>
+      <c r="J185" t="s">
+        <v>206</v>
+      </c>
+      <c r="K185" t="s">
+        <v>206</v>
+      </c>
+      <c r="L185" t="s">
+        <v>206</v>
+      </c>
+      <c r="M185" t="s">
+        <v>206</v>
+      </c>
+      <c r="N185" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
@@ -8488,6 +9952,30 @@
       <c r="F186" t="s">
         <v>206</v>
       </c>
+      <c r="G186" t="s">
+        <v>206</v>
+      </c>
+      <c r="H186" t="s">
+        <v>206</v>
+      </c>
+      <c r="I186" t="s">
+        <v>206</v>
+      </c>
+      <c r="J186" t="s">
+        <v>206</v>
+      </c>
+      <c r="K186" t="s">
+        <v>206</v>
+      </c>
+      <c r="L186" t="s">
+        <v>206</v>
+      </c>
+      <c r="M186" t="s">
+        <v>206</v>
+      </c>
+      <c r="N186" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
@@ -8508,6 +9996,30 @@
       <c r="F187" t="s">
         <v>206</v>
       </c>
+      <c r="G187" t="s">
+        <v>206</v>
+      </c>
+      <c r="H187" t="s">
+        <v>206</v>
+      </c>
+      <c r="I187" t="s">
+        <v>206</v>
+      </c>
+      <c r="J187" t="s">
+        <v>206</v>
+      </c>
+      <c r="K187" t="s">
+        <v>206</v>
+      </c>
+      <c r="L187" t="s">
+        <v>206</v>
+      </c>
+      <c r="M187" t="s">
+        <v>206</v>
+      </c>
+      <c r="N187" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8702,6 +10214,30 @@
         <v>1</v>
       </c>
       <c r="F192" t="s">
+        <v>206</v>
+      </c>
+      <c r="G192" t="s">
+        <v>206</v>
+      </c>
+      <c r="H192" t="s">
+        <v>206</v>
+      </c>
+      <c r="I192" t="s">
+        <v>206</v>
+      </c>
+      <c r="J192" t="s">
+        <v>206</v>
+      </c>
+      <c r="K192" t="s">
+        <v>206</v>
+      </c>
+      <c r="L192" t="s">
+        <v>206</v>
+      </c>
+      <c r="M192" t="s">
+        <v>206</v>
+      </c>
+      <c r="N192" t="s">
         <v>206</v>
       </c>
     </row>

--- a/sequences/13_retrieval_1.xlsx
+++ b/sequences/13_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>posten</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>wollen</t>
+  </si>
+  <si>
+    <t>kürzen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>fassen</t>
+  </si>
+  <si>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>knien</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>klagen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>kratzen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>nerven</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>sagen</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>wärmen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>dringen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>fesseln</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>kriegen</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>nähen</t>
+  </si>
+  <si>
+    <t>bieten</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
     <t>meinen</t>
   </si>
   <si>
-    <t>zittern</t>
-  </si>
-  <si>
-    <t>bergen</t>
+    <t>mauern</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>krachen</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>schützen</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>achten</t>
+  </si>
+  <si>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>dürfen</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>fühlen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>träumen</t>
+  </si>
+  <si>
+    <t>lügen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>bremsen</t>
+  </si>
+  <si>
+    <t>prügeln</t>
+  </si>
+  <si>
+    <t>wehtun</t>
+  </si>
+  <si>
+    <t>klingeln</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>schwimmen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>spannen</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>biegen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>stürmen</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>wagen</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>pissen</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>stimmen</t>
   </si>
   <si>
     <t>runden</t>
   </si>
   <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>reisen</t>
-  </si>
-  <si>
-    <t>sagen</t>
-  </si>
-  <si>
-    <t>bilden</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>hoffen</t>
-  </si>
-  <si>
-    <t>regen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>sondern</t>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>wechseln</t>
+  </si>
+  <si>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>zögern</t>
+  </si>
+  <si>
+    <t>sprengen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>buchen</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>drehen</t>
+  </si>
+  <si>
+    <t>sammeln</t>
+  </si>
+  <si>
+    <t>füttern</t>
+  </si>
+  <si>
+    <t>danken</t>
   </si>
   <si>
     <t>wenden</t>
   </si>
   <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>klettern</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>kürzen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>achten</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>sorgen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>osten</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>erben</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>haken</t>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>wandern</t>
+  </si>
+  <si>
+    <t>treten</t>
+  </si>
+  <si>
+    <t>starten</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>löschen</t>
+  </si>
+  <si>
+    <t>tauchen</t>
+  </si>
+  <si>
+    <t>schalten</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>regnen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>werden</t>
   </si>
   <si>
     <t>füllen</t>
   </si>
   <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>fragen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>stehen</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>biegen</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>gnaden</t>
+    <t>hindern</t>
+  </si>
+  <si>
+    <t>pressen</t>
   </si>
   <si>
     <t>schwören</t>
   </si>
   <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>trauen</t>
-  </si>
-  <si>
-    <t>treiben</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>putzen</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>scheinen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>zwingen</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>heilen</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>nähern</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>drohen</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>lesen</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>wohnen</t>
-  </si>
-  <si>
-    <t>freuen</t>
-  </si>
-  <si>
-    <t>drehen</t>
-  </si>
-  <si>
-    <t>brauen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>daten</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>zögern</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>lernen</t>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>betteln</t>
   </si>
   <si>
     <t>decken</t>
   </si>
   <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>sinken</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>stürzen</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>mauern</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>bellen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>wechseln</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>heulen</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>zielen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>hauen</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>posten</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>wahren</t>
-  </si>
-  <si>
-    <t>angeln</t>
+    <t>teilen</t>
   </si>
   <si>
     <t>loben</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>vögeln</t>
-  </si>
-  <si>
-    <t>bremsen</t>
-  </si>
-  <si>
-    <t>kosten</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>stimmen</t>
-  </si>
-  <si>
-    <t>nennen</t>
-  </si>
-  <si>
-    <t>teilen</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>hängen</t>
-  </si>
-  <si>
-    <t>scheiden</t>
-  </si>
-  <si>
-    <t>knarren</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>werden</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>lohnen</t>
-  </si>
-  <si>
-    <t>socken</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>schalten</t>
-  </si>
-  <si>
-    <t>schenken</t>
   </si>
   <si>
     <t>dog/dog015.jpg</t>
